--- a/StructureDefinition-pmiresearch-subject.xlsx
+++ b/StructureDefinition-pmiresearch-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:30:00+00:00</t>
+    <t>2022-03-29T01:42:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmiresearch-subject.xlsx
+++ b/StructureDefinition-pmiresearch-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:42:38+00:00</t>
+    <t>2022-03-29T02:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmiresearch-subject.xlsx
+++ b/StructureDefinition-pmiresearch-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T02:49:17+00:00</t>
+    <t>2022-03-29T03:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -446,20 +446,20 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>pairingOrganization</t>
+    <t>pairedEntities</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://pmi-ops.org/fhir/StructureDefinition/pmiresearch-pairing-organization}
+    <t xml:space="preserve">Extension {https://pmi-ops.org/fhir/StructureDefinition/pmipairing-entities}
 </t>
   </si>
   <si>
-    <t>PMI Research Pairing Organization</t>
-  </si>
-  <si>
-    <t>Organization that Participant is paired with</t>
+    <t>PMI Pairing Entities</t>
+  </si>
+  <si>
+    <t>Entities that Participant is paired with</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1243,7 +1243,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="34.7890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.1796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.7421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-pmiresearch-subject.xlsx
+++ b/StructureDefinition-pmiresearch-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T03:43:36+00:00</t>
+    <t>2022-03-30T01:18:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -544,7 +544,7 @@
     <t>ResearchSubject.identifier.use</t>
   </si>
   <si>
-    <t>official</t>
+    <t>usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>The purpose of this identifier.</t>
@@ -590,133 +590,134 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>ResearchSubject.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>ResearchSubject.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>ResearchSubject.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>ResearchSubject.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>PTSCID</t>
+  </si>
+  <si>
+    <t>PTSC ID for the research subject</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
     &lt;code value="XX"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>ResearchSubject.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>ResearchSubject.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>ResearchSubject.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>ResearchSubject.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>PTSCID</t>
-  </si>
-  <si>
-    <t>PTSC ID for the research subject</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>https://pmi-ops.org/fhir/systems/ptsc-id</t>
@@ -2831,7 +2832,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>168</v>
       </c>
@@ -2841,13 +2842,13 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>87</v>
@@ -2878,7 +2879,7 @@
         <v>77</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>77</v>
@@ -2944,7 +2945,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>178</v>
       </c>
@@ -2954,13 +2955,13 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -2991,46 +2992,46 @@
         <v>77</v>
       </c>
       <c r="R16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="S16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W16" t="s" s="2">
+      <c r="X16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3048,7 +3049,7 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>177</v>
@@ -3057,9 +3058,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3067,13 +3068,13 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3085,16 +3086,16 @@
         <v>100</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3107,43 +3108,43 @@
         <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3161,18 +3162,18 @@
         <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3180,13 +3181,13 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3198,13 +3199,13 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3218,43 +3219,43 @@
         <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3272,10 +3273,10 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3283,7 +3284,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3306,13 +3307,13 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3363,7 +3364,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3381,10 +3382,10 @@
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3392,7 +3393,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3415,16 +3416,16 @@
         <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3474,7 +3475,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3492,10 +3493,10 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -3506,7 +3507,7 @@
         <v>146</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>77</v>
@@ -3531,7 +3532,7 @@
         <v>148</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>150</v>
@@ -3832,7 +3833,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>168</v>
       </c>
@@ -3842,13 +3843,13 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>87</v>
@@ -3860,7 +3861,7 @@
         <v>106</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>170</v>
@@ -3879,7 +3880,7 @@
         <v>77</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>77</v>
@@ -3945,7 +3946,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>178</v>
       </c>
@@ -3955,13 +3956,13 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -3992,7 +3993,7 @@
         <v>77</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>77</v>
@@ -4007,31 +4008,31 @@
         <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4049,7 +4050,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>177</v>
@@ -4060,7 +4061,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4068,7 +4069,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>86</v>
@@ -4086,16 +4087,16 @@
         <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4108,43 +4109,43 @@
         <v>225</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4162,10 +4163,10 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4173,7 +4174,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4202,10 +4203,10 @@
         <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4219,43 +4220,43 @@
         <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4273,10 +4274,10 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4284,7 +4285,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4307,13 +4308,13 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4364,7 +4365,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4382,10 +4383,10 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4393,7 +4394,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4416,16 +4417,16 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4475,7 +4476,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4493,10 +4494,10 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4833,7 +4834,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>168</v>
       </c>
@@ -4843,13 +4844,13 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>87</v>
@@ -4861,7 +4862,7 @@
         <v>106</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>170</v>
@@ -4880,7 +4881,7 @@
         <v>77</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4946,7 +4947,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>178</v>
       </c>
@@ -4956,13 +4957,13 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -4993,7 +4994,7 @@
         <v>77</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>77</v>
@@ -5008,31 +5009,31 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X34" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X34" t="s" s="2">
+      <c r="Y34" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5050,7 +5051,7 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>177</v>
@@ -5061,7 +5062,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5069,7 +5070,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>86</v>
@@ -5087,16 +5088,16 @@
         <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5109,43 +5110,43 @@
         <v>229</v>
       </c>
       <c r="S35" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5163,10 +5164,10 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5174,7 +5175,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5203,10 +5204,10 @@
         <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5220,43 +5221,43 @@
         <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5274,10 +5275,10 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5285,7 +5286,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5308,13 +5309,13 @@
         <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5365,7 +5366,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5383,10 +5384,10 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5394,7 +5395,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5417,16 +5418,16 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5476,7 +5477,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5494,10 +5495,10 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -5637,7 +5638,7 @@
         <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>241</v>

--- a/StructureDefinition-pmiresearch-subject.xlsx
+++ b/StructureDefinition-pmiresearch-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T01:18:45+00:00</t>
+    <t>2022-03-30T15:49:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmiresearch-subject.xlsx
+++ b/StructureDefinition-pmiresearch-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:49:01+00:00</t>
+    <t>2022-03-30T16:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
